--- a/supplement/10_overlapping_enrichment_rhythmic_gens.xlsx
+++ b/supplement/10_overlapping_enrichment_rhythmic_gens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roos_brouns/Dropbox/Ant-fungus/02_scripts/Git_Das_folder2/Das_et_al_2022a/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5895D4AC-CA40-F341-A9ED-23E84367C857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99145D7B-7CF3-A24D-8A59-CE62443AA8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{F1F804B7-852C-F145-BD48-004B8B678B56}"/>
   </bookViews>
@@ -790,7 +790,7 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/supplement/10_overlapping_enrichment_rhythmic_gens.xlsx
+++ b/supplement/10_overlapping_enrichment_rhythmic_gens.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roos_brouns/Dropbox/Ant-fungus/02_scripts/Git_Das_folder2/Das_et_al_2022a/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99145D7B-7CF3-A24D-8A59-CE62443AA8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AACB8-D60A-C74B-9483-F0862C6AF1C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{F1F804B7-852C-F145-BD48-004B8B678B56}"/>
   </bookViews>
   <sheets>
     <sheet name="24h" sheetId="1" r:id="rId1"/>
-    <sheet name="12h" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1377,16 +1376,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3190D13-9481-0042-96C8-F964B6AA3270}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>